--- a/hepvs_2020_lm/hepvs2020_lm_raw.xlsx
+++ b/hepvs_2020_lm/hepvs2020_lm_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasbressoud/Documents/GitHub/r-projects/hepvs_2020_lm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5D71FF-B226-AC43-A3A3-1AF97FD9BDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DFF8EC-A3AB-6A48-8FC0-F21ADB0FC678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="21600" xr2:uid="{A293DA52-7156-C54C-BCD7-F8A433473A5C}"/>
+    <workbookView xWindow="9920" yWindow="980" windowWidth="19160" windowHeight="19520" xr2:uid="{A293DA52-7156-C54C-BCD7-F8A433473A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,6 +168,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,9 +201,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -514,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A578A9C3-64F0-BD46-B45E-885F700BE51E}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="224" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="224" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,10 +677,10 @@
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="1" t="s">

--- a/hepvs_2020_lm/hepvs2020_lm_raw.xlsx
+++ b/hepvs_2020_lm/hepvs2020_lm_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasbressoud/Documents/GitHub/r-projects/hepvs_2020_lm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BED1E2-29E8-CF40-8192-36D95D2A3777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156FF3D5-654A-EF4C-9E1C-0FF9A55A96F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,66 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="149">
   <si>
     <t>code</t>
-  </si>
-  <si>
-    <t>pan_1</t>
-  </si>
-  <si>
-    <t>pan_2</t>
-  </si>
-  <si>
-    <t>pan_3</t>
-  </si>
-  <si>
-    <t>pan_4</t>
-  </si>
-  <si>
-    <t>pan_5</t>
-  </si>
-  <si>
-    <t>pan_6</t>
-  </si>
-  <si>
-    <t>pan_7</t>
-  </si>
-  <si>
-    <t>pan_8</t>
-  </si>
-  <si>
-    <t>pan_9</t>
-  </si>
-  <si>
-    <t>pan_10</t>
-  </si>
-  <si>
-    <t>pan_11</t>
-  </si>
-  <si>
-    <t>pan_12</t>
-  </si>
-  <si>
-    <t>pan_13</t>
-  </si>
-  <si>
-    <t>pan_14</t>
-  </si>
-  <si>
-    <t>pan_15</t>
-  </si>
-  <si>
-    <t>pan_16</t>
-  </si>
-  <si>
-    <t>pan_17</t>
-  </si>
-  <si>
-    <t>pan_18</t>
-  </si>
-  <si>
-    <t>pan_19</t>
-  </si>
-  <si>
-    <t>pan_20</t>
   </si>
   <si>
     <t>JL75</t>
@@ -468,6 +408,66 @@
   <si>
     <t>pro13_13</t>
   </si>
+  <si>
+    <t>panp_1</t>
+  </si>
+  <si>
+    <t>panp_3</t>
+  </si>
+  <si>
+    <t>panp_5</t>
+  </si>
+  <si>
+    <t>panp_9</t>
+  </si>
+  <si>
+    <t>panp_12</t>
+  </si>
+  <si>
+    <t>panp_10</t>
+  </si>
+  <si>
+    <t>panp_14</t>
+  </si>
+  <si>
+    <t>panp_16</t>
+  </si>
+  <si>
+    <t>panp_17</t>
+  </si>
+  <si>
+    <t>panp_19</t>
+  </si>
+  <si>
+    <t>pann_2</t>
+  </si>
+  <si>
+    <t>pann_4</t>
+  </si>
+  <si>
+    <t>pann_6</t>
+  </si>
+  <si>
+    <t>pann_7</t>
+  </si>
+  <si>
+    <t>pann_8</t>
+  </si>
+  <si>
+    <t>pann_11</t>
+  </si>
+  <si>
+    <t>pann_13</t>
+  </si>
+  <si>
+    <t>pann_15</t>
+  </si>
+  <si>
+    <t>pann_18</t>
+  </si>
+  <si>
+    <t>pann_20</t>
+  </si>
 </sst>
 </file>
 
@@ -836,9 +836,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -853,145 +853,145 @@
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:47" ht="16" x14ac:dyDescent="0.2">
@@ -999,7 +999,7 @@
         <v>44074.570716585651</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1138,7 +1138,7 @@
         <v>44074.571389826386</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1277,7 +1277,7 @@
         <v>44074.571439814812</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1416,7 +1416,7 @@
         <v>44074.571447974537</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1555,7 +1555,7 @@
         <v>44074.571463796296</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1694,7 +1694,7 @@
         <v>44074.571465023146</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1833,7 +1833,7 @@
         <v>44074.571466458336</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1972,7 +1972,7 @@
         <v>44074.571468159724</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2111,7 +2111,7 @@
         <v>44074.571473159725</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2250,7 +2250,7 @@
         <v>44074.571474467593</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2389,7 +2389,7 @@
         <v>44074.57148003472</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2528,7 +2528,7 @@
         <v>44074.571482939813</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2667,7 +2667,7 @@
         <v>44074.57148309028</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2806,7 +2806,7 @@
         <v>44074.571484479166</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2945,7 +2945,7 @@
         <v>44074.571499178244</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3084,7 +3084,7 @@
         <v>44074.571501597224</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3223,7 +3223,7 @@
         <v>44074.571503865744</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -3362,7 +3362,7 @@
         <v>44074.571522094906</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -3501,7 +3501,7 @@
         <v>44074.572455613423</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3640,7 +3640,7 @@
         <v>44077.612429317131</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3779,7 +3779,7 @@
         <v>44077.613322430552</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3918,7 +3918,7 @@
         <v>44077.613630405096</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -4057,7 +4057,7 @@
         <v>44077.613757291663</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -4196,7 +4196,7 @@
         <v>44077.613919340278</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -4335,7 +4335,7 @@
         <v>44077.614310046294</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4474,7 +4474,7 @@
         <v>44077.61431704861</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4613,7 +4613,7 @@
         <v>44077.614318761574</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4752,7 +4752,7 @@
         <v>44077.614318912034</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4891,7 +4891,7 @@
         <v>44077.614319618056</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -5030,7 +5030,7 @@
         <v>44077.614320335648</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5169,7 +5169,7 @@
         <v>44077.614322210648</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5308,7 +5308,7 @@
         <v>44077.614327280091</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5447,7 +5447,7 @@
         <v>44077.61446902778</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5586,7 +5586,7 @@
         <v>44077.61451388889</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5725,7 +5725,7 @@
         <v>44077.614527141202</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -5864,7 +5864,7 @@
         <v>44077.614529178238</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -6003,7 +6003,7 @@
         <v>44077.614541967596</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -6142,7 +6142,7 @@
         <v>44077.614549131948</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -6281,7 +6281,7 @@
         <v>44077.614557881941</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -6420,7 +6420,7 @@
         <v>44077.614619722219</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -6559,7 +6559,7 @@
         <v>44077.614705312502</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -6698,7 +6698,7 @@
         <v>44077.615188194446</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -6837,7 +6837,7 @@
         <v>44077.615234652774</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -6976,7 +6976,7 @@
         <v>44077.615741701389</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -7115,7 +7115,7 @@
         <v>44077.615896111114</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -7254,7 +7254,7 @@
         <v>44077.615896736112</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -7393,7 +7393,7 @@
         <v>44077.617185960647</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -7532,7 +7532,7 @@
         <v>44077.617207581017</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -7671,7 +7671,7 @@
         <v>44077.617482696762</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -7810,7 +7810,7 @@
         <v>44077.617823090281</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -7949,7 +7949,7 @@
         <v>44077.61833824074</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -8088,7 +8088,7 @@
         <v>44077.618672500001</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -8227,7 +8227,7 @@
         <v>44077.620111770833</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -8366,7 +8366,7 @@
         <v>44077.620186863423</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -8505,7 +8505,7 @@
         <v>44078.424288634262</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -8644,7 +8644,7 @@
         <v>44078.424290324074</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -8783,7 +8783,7 @@
         <v>44078.427656111111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -8922,7 +8922,7 @@
         <v>44078.429555150462</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -9061,7 +9061,7 @@
         <v>44078.429910219907</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -9200,7 +9200,7 @@
         <v>44078.430817418979</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -9339,7 +9339,7 @@
         <v>44078.430929016205</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -9478,7 +9478,7 @@
         <v>44078.431701423608</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -9617,7 +9617,7 @@
         <v>44078.433542905092</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -9756,7 +9756,7 @@
         <v>44078.434989965281</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -9895,7 +9895,7 @@
         <v>44078.435013379632</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -10034,7 +10034,7 @@
         <v>44081.357285439815</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -10173,7 +10173,7 @@
         <v>44081.357742488428</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -10312,7 +10312,7 @@
         <v>44081.360494363427</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -10451,7 +10451,7 @@
         <v>44081.569096030093</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -10590,7 +10590,7 @@
         <v>44081.571194270837</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -10729,7 +10729,7 @@
         <v>44081.571382164351</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -10868,7 +10868,7 @@
         <v>44081.571445636575</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -11007,7 +11007,7 @@
         <v>44081.57156960648</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -11146,7 +11146,7 @@
         <v>44084.593043217596</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -11285,7 +11285,7 @@
         <v>44116.559442511571</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -11424,7 +11424,7 @@
         <v>44116.560070520834</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -11563,7 +11563,7 @@
         <v>44116.560722719907</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -11702,7 +11702,7 @@
         <v>44116.560765821756</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -11841,7 +11841,7 @@
         <v>44116.561007025462</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -11980,7 +11980,7 @@
         <v>44116.561032731479</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -12119,7 +12119,7 @@
         <v>44116.561038356478</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -12258,7 +12258,7 @@
         <v>44116.561043946756</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -12397,7 +12397,7 @@
         <v>44116.561058969906</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -12536,7 +12536,7 @@
         <v>44116.561062696761</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -12675,7 +12675,7 @@
         <v>44116.561077060185</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -12814,7 +12814,7 @@
         <v>44116.561079074076</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -12953,7 +12953,7 @@
         <v>44116.561100347222</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -13092,7 +13092,7 @@
         <v>44116.561111053241</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -13231,7 +13231,7 @@
         <v>44116.561169803237</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -13370,7 +13370,7 @@
         <v>44116.56117241898</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -13509,7 +13509,7 @@
         <v>44116.5611780787</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -13648,7 +13648,7 @@
         <v>44116.561552905092</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -13787,7 +13787,7 @@
         <v>44117.441155729168</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -13926,7 +13926,7 @@
         <v>44117.442080185188</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -14065,7 +14065,7 @@
         <v>44117.442415300924</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -14204,7 +14204,7 @@
         <v>44117.443905428241</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -14343,7 +14343,7 @@
         <v>44117.444172534721</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -14482,7 +14482,7 @@
         <v>44117.444711574077</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -14621,7 +14621,7 @@
         <v>44117.445453182867</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -14760,7 +14760,7 @@
         <v>44117.445850752316</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -14899,7 +14899,7 @@
         <v>44117.61626628472</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -15038,7 +15038,7 @@
         <v>44117.617551111114</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -15177,7 +15177,7 @@
         <v>44117.619040104168</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -15316,7 +15316,7 @@
         <v>44117.619139988426</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -15455,7 +15455,7 @@
         <v>44117.619185798612</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -15594,7 +15594,7 @@
         <v>44117.619525324073</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -15733,7 +15733,7 @@
         <v>44117.620251504632</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -15872,7 +15872,7 @@
         <v>44117.621613680552</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -16011,7 +16011,7 @@
         <v>44117.62219908565</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -16150,7 +16150,7 @@
         <v>44117.641447881942</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -16289,7 +16289,7 @@
         <v>44119.578690509261</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -16428,7 +16428,7 @@
         <v>44119.606741481482</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -16567,7 +16567,7 @@
         <v>44119.606929525464</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -16706,7 +16706,7 @@
         <v>44119.607031006941</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -16845,7 +16845,7 @@
         <v>44119.607599421295</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -16984,7 +16984,7 @@
         <v>44119.608636157405</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -17123,7 +17123,7 @@
         <v>44119.609008692132</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -17262,7 +17262,7 @@
         <v>44119.609116435182</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -17401,7 +17401,7 @@
         <v>44119.610619467596</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -17540,7 +17540,7 @@
         <v>44119.611227199071</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -17679,7 +17679,7 @@
         <v>44119.611300949073</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -17818,7 +17818,7 @@
         <v>44119.611452685182</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -17957,7 +17957,7 @@
         <v>44119.611546006941</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -18096,7 +18096,7 @@
         <v>44119.611572881942</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -18235,7 +18235,7 @@
         <v>44119.612224976852</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -18374,7 +18374,7 @@
         <v>44119.612310185184</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -18513,7 +18513,7 @@
         <v>44119.615503194444</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -18652,7 +18652,7 @@
         <v>44119.615909375003</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -18791,7 +18791,7 @@
         <v>44119.616679317129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -18930,7 +18930,7 @@
         <v>44119.617816435188</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -19069,7 +19069,7 @@
         <v>44119.619030451388</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -19208,7 +19208,7 @@
         <v>44120.603671365738</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -19347,7 +19347,7 @@
         <v>44120.60687984954</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -19486,7 +19486,7 @@
         <v>44120.607293472225</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -19625,7 +19625,7 @@
         <v>44120.607388750002</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -19764,7 +19764,7 @@
         <v>44120.607748252318</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -19903,7 +19903,7 @@
         <v>44120.608030138887</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -20042,7 +20042,7 @@
         <v>44120.608731956017</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -20181,7 +20181,7 @@
         <v>44120.609069120372</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -20320,7 +20320,7 @@
         <v>44120.609561504629</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -20459,7 +20459,7 @@
         <v>44120.609632766202</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -20598,7 +20598,7 @@
         <v>44120.609979386572</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -20737,7 +20737,7 @@
         <v>44120.610474224537</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -20876,7 +20876,7 @@
         <v>44124.644831238424</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -21015,7 +21015,7 @@
         <v>44124.648742546298</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -21154,7 +21154,7 @@
         <v>44124.648769155094</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -21293,7 +21293,7 @@
         <v>44124.648806585647</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -21432,7 +21432,7 @@
         <v>44124.649484583337</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -21571,7 +21571,7 @@
         <v>44124.649496840277</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -21710,7 +21710,7 @@
         <v>44124.649605960651</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -21849,7 +21849,7 @@
         <v>44124.64987739583</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -21988,7 +21988,7 @@
         <v>44124.64991537037</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -22127,7 +22127,7 @@
         <v>44124.650038796295</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -22266,7 +22266,7 @@
         <v>44124.650244085649</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -22405,7 +22405,7 @@
         <v>44124.650285000003</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -22544,7 +22544,7 @@
         <v>44124.65029287037</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -22683,7 +22683,7 @@
         <v>44124.651522187502</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -22822,7 +22822,7 @@
         <v>44124.651654513887</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -22961,7 +22961,7 @@
         <v>44124.65226667824</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -23100,7 +23100,7 @@
         <v>44124.652626840281</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -23239,7 +23239,7 @@
         <v>44124.652967013892</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -23378,7 +23378,7 @@
         <v>44124.653484039351</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>

--- a/hepvs_2020_lm/hepvs2020_lm_raw.xlsx
+++ b/hepvs_2020_lm/hepvs2020_lm_raw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasbressoud/Documents/GitHub/r-projects/hepvs_2020_lm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156FF3D5-654A-EF4C-9E1C-0FF9A55A96F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121C0845-E230-884B-BF56-917EE195B241}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29500" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="156">
   <si>
     <t>code</t>
   </si>
@@ -409,6 +409,27 @@
     <t>pro13_13</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrôle </t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Expérimentale</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>panp_1</t>
   </si>
   <si>
@@ -421,10 +442,10 @@
     <t>panp_9</t>
   </si>
   <si>
-    <t>panp_12</t>
+    <t>panp_10</t>
   </si>
   <si>
-    <t>panp_10</t>
+    <t>panp_12</t>
   </si>
   <si>
     <t>panp_14</t>
@@ -836,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="187" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y5" sqref="Y5"/>
     </sheetView>
@@ -871,64 +892,64 @@
         <v>104</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="S1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="U1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="X1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="Z1" s="3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>108</v>
@@ -1001,8 +1022,12 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -1140,8 +1165,12 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -1279,8 +1308,12 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -1418,8 +1451,12 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -1557,8 +1594,12 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E6">
         <v>1</v>
       </c>
@@ -1696,8 +1737,12 @@
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E7">
         <v>2</v>
       </c>
@@ -1835,8 +1880,12 @@
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E8">
         <v>2</v>
       </c>
@@ -1974,8 +2023,12 @@
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E9">
         <v>1</v>
       </c>
@@ -2113,8 +2166,12 @@
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E10">
         <v>2</v>
       </c>
@@ -2391,8 +2448,12 @@
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E12">
         <v>1</v>
       </c>
@@ -2530,8 +2591,12 @@
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E13">
         <v>1</v>
       </c>
@@ -2669,8 +2734,12 @@
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E14">
         <v>1</v>
       </c>
@@ -2808,8 +2877,12 @@
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E15">
         <v>2</v>
       </c>
@@ -2947,8 +3020,12 @@
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E16">
         <v>1</v>
       </c>
@@ -3086,8 +3163,12 @@
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E17">
         <v>2</v>
       </c>
@@ -3225,8 +3306,12 @@
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E18">
         <v>1</v>
       </c>
@@ -3364,8 +3449,12 @@
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E19">
         <v>1</v>
       </c>
@@ -3503,8 +3592,12 @@
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E20">
         <v>1</v>
       </c>
@@ -3642,8 +3735,12 @@
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E21">
         <v>1</v>
       </c>
@@ -3781,8 +3878,12 @@
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E22">
         <v>1</v>
       </c>
@@ -3920,8 +4021,12 @@
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E23">
         <v>1</v>
       </c>
@@ -4059,8 +4164,12 @@
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E24">
         <v>1</v>
       </c>
@@ -4198,8 +4307,12 @@
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E25">
         <v>1</v>
       </c>
@@ -4337,8 +4450,12 @@
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E26">
         <v>1</v>
       </c>
@@ -4476,8 +4593,12 @@
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E27">
         <v>2</v>
       </c>
@@ -4615,8 +4736,12 @@
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E28">
         <v>2</v>
       </c>
@@ -4754,8 +4879,12 @@
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E29">
         <v>2</v>
       </c>
@@ -4893,8 +5022,12 @@
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E30">
         <v>1</v>
       </c>
@@ -5032,8 +5165,12 @@
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E31">
         <v>1</v>
       </c>
@@ -5171,8 +5308,12 @@
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E32">
         <v>1</v>
       </c>
@@ -5310,8 +5451,12 @@
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E33">
         <v>1</v>
       </c>
@@ -5449,8 +5594,12 @@
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E34">
         <v>1</v>
       </c>
@@ -5588,8 +5737,12 @@
       <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E35">
         <v>2</v>
       </c>
@@ -5727,8 +5880,12 @@
       <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E36">
         <v>1</v>
       </c>
@@ -5866,8 +6023,12 @@
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E37">
         <v>1</v>
       </c>
@@ -6005,8 +6166,12 @@
       <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E38">
         <v>1</v>
       </c>
@@ -6144,8 +6309,12 @@
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E39">
         <v>1</v>
       </c>
@@ -6283,8 +6452,12 @@
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E40">
         <v>2</v>
       </c>
@@ -6422,8 +6595,12 @@
       <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E41">
         <v>1</v>
       </c>
@@ -6561,8 +6738,12 @@
       <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E42">
         <v>2</v>
       </c>
@@ -6700,8 +6881,12 @@
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E43">
         <v>1</v>
       </c>
@@ -6839,8 +7024,12 @@
       <c r="B44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E44">
         <v>2</v>
       </c>
@@ -7117,8 +7306,12 @@
       <c r="B46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E46">
         <v>1</v>
       </c>
@@ -7256,8 +7449,12 @@
       <c r="B47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E47">
         <v>2</v>
       </c>
@@ -7395,8 +7592,12 @@
       <c r="B48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E48">
         <v>2</v>
       </c>
@@ -7534,8 +7735,12 @@
       <c r="B49" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E49">
         <v>2</v>
       </c>
@@ -7673,8 +7878,12 @@
       <c r="B50" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E50">
         <v>1</v>
       </c>
@@ -7812,8 +8021,12 @@
       <c r="B51" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E51">
         <v>1</v>
       </c>
@@ -7951,8 +8164,12 @@
       <c r="B52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E52">
         <v>2</v>
       </c>
@@ -8090,8 +8307,12 @@
       <c r="B53" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E53">
         <v>1</v>
       </c>
@@ -8229,8 +8450,12 @@
       <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E54">
         <v>2</v>
       </c>
@@ -8368,8 +8593,12 @@
       <c r="B55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E55">
         <v>1</v>
       </c>
@@ -8507,8 +8736,12 @@
       <c r="B56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E56">
         <v>1</v>
       </c>
@@ -8646,8 +8879,12 @@
       <c r="B57" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E57">
         <v>2</v>
       </c>
@@ -8785,8 +9022,12 @@
       <c r="B58" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E58">
         <v>1</v>
       </c>
@@ -8924,8 +9165,12 @@
       <c r="B59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E59">
         <v>2</v>
       </c>
@@ -9063,8 +9308,12 @@
       <c r="B60" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E60">
         <v>1</v>
       </c>
@@ -9202,8 +9451,12 @@
       <c r="B61" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E61">
         <v>1</v>
       </c>
@@ -9341,8 +9594,12 @@
       <c r="B62" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E62">
         <v>1</v>
       </c>
@@ -9480,8 +9737,12 @@
       <c r="B63" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E63">
         <v>2</v>
       </c>
@@ -9619,8 +9880,12 @@
       <c r="B64" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E64">
         <v>1</v>
       </c>
@@ -9758,8 +10023,12 @@
       <c r="B65" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E65">
         <v>2</v>
       </c>
@@ -9897,8 +10166,12 @@
       <c r="B66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E66">
         <v>2</v>
       </c>
@@ -10036,8 +10309,12 @@
       <c r="B67" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E67">
         <v>2</v>
       </c>
@@ -10175,8 +10452,12 @@
       <c r="B68" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E68">
         <v>1</v>
       </c>
@@ -10314,8 +10595,12 @@
       <c r="B69" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E69">
         <v>2</v>
       </c>
@@ -10453,8 +10738,12 @@
       <c r="B70" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E70">
         <v>2</v>
       </c>
@@ -10592,8 +10881,12 @@
       <c r="B71" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E71">
         <v>2</v>
       </c>
@@ -10731,8 +11024,12 @@
       <c r="B72" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E72">
         <v>1</v>
       </c>
@@ -10870,8 +11167,12 @@
       <c r="B73" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E73">
         <v>2</v>
       </c>
@@ -11009,8 +11310,12 @@
       <c r="B74" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E74">
         <v>2</v>
       </c>
@@ -11148,8 +11453,12 @@
       <c r="B75" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E75">
         <v>1</v>
       </c>
@@ -11287,8 +11596,12 @@
       <c r="B76" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E76">
         <v>2</v>
       </c>
@@ -11426,8 +11739,12 @@
       <c r="B77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E77">
         <v>1</v>
       </c>
@@ -11565,8 +11882,12 @@
       <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E78">
         <v>1</v>
       </c>
@@ -11704,8 +12025,12 @@
       <c r="B79" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E79">
         <v>1</v>
       </c>
@@ -11843,8 +12168,12 @@
       <c r="B80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E80">
         <v>2</v>
       </c>
@@ -11982,8 +12311,12 @@
       <c r="B81" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E81">
         <v>2</v>
       </c>
@@ -12121,8 +12454,12 @@
       <c r="B82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E82">
         <v>1</v>
       </c>
@@ -12260,8 +12597,12 @@
       <c r="B83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E83">
         <v>1</v>
       </c>
@@ -12399,8 +12740,12 @@
       <c r="B84" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E84">
         <v>2</v>
       </c>
@@ -12538,8 +12883,12 @@
       <c r="B85" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E85">
         <v>1</v>
       </c>
@@ -12677,8 +13026,12 @@
       <c r="B86" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E86">
         <v>1</v>
       </c>
@@ -12816,8 +13169,12 @@
       <c r="B87" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E87">
         <v>2</v>
       </c>
@@ -12955,8 +13312,12 @@
       <c r="B88" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E88">
         <v>1</v>
       </c>
@@ -13094,8 +13455,12 @@
       <c r="B89" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E89">
         <v>1</v>
       </c>
@@ -13233,8 +13598,12 @@
       <c r="B90" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E90">
         <v>2</v>
       </c>
@@ -13372,8 +13741,12 @@
       <c r="B91" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E91">
         <v>1</v>
       </c>
@@ -13511,8 +13884,12 @@
       <c r="B92" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E92">
         <v>2</v>
       </c>
@@ -13650,8 +14027,12 @@
       <c r="B93" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E93">
         <v>1</v>
       </c>
@@ -13789,8 +14170,12 @@
       <c r="B94" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E94">
         <v>1</v>
       </c>
@@ -13928,8 +14313,12 @@
       <c r="B95" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E95">
         <v>2</v>
       </c>
@@ -14067,8 +14456,12 @@
       <c r="B96" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E96">
         <v>1</v>
       </c>
@@ -14206,8 +14599,12 @@
       <c r="B97" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E97">
         <v>2</v>
       </c>
@@ -14345,8 +14742,12 @@
       <c r="B98" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E98">
         <v>2</v>
       </c>
@@ -14484,8 +14885,12 @@
       <c r="B99" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E99">
         <v>2</v>
       </c>
@@ -14623,8 +15028,12 @@
       <c r="B100" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E100">
         <v>1</v>
       </c>
@@ -14762,8 +15171,12 @@
       <c r="B101" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="C101" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E101">
         <v>2</v>
       </c>
@@ -14901,8 +15314,12 @@
       <c r="B102" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
+      <c r="C102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E102">
         <v>1</v>
       </c>
@@ -15040,8 +15457,12 @@
       <c r="B103" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E103">
         <v>2</v>
       </c>
@@ -15179,8 +15600,12 @@
       <c r="B104" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E104">
         <v>2</v>
       </c>
@@ -15318,8 +15743,12 @@
       <c r="B105" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
+      <c r="C105" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E105">
         <v>1</v>
       </c>
@@ -15457,8 +15886,12 @@
       <c r="B106" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E106">
         <v>1</v>
       </c>
@@ -15596,8 +16029,12 @@
       <c r="B107" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
+      <c r="C107" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E107">
         <v>1</v>
       </c>
@@ -15735,8 +16172,12 @@
       <c r="B108" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
+      <c r="C108" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E108">
         <v>2</v>
       </c>
@@ -15874,8 +16315,12 @@
       <c r="B109" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
+      <c r="C109" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E109">
         <v>1</v>
       </c>
@@ -16013,8 +16458,12 @@
       <c r="B110" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+      <c r="C110" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E110">
         <v>2</v>
       </c>
@@ -16152,8 +16601,12 @@
       <c r="B111" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
+      <c r="C111" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E111">
         <v>2</v>
       </c>
@@ -16291,8 +16744,12 @@
       <c r="B112" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
+      <c r="C112" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E112">
         <v>1</v>
       </c>
@@ -16430,8 +16887,12 @@
       <c r="B113" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E113">
         <v>1</v>
       </c>
@@ -16569,8 +17030,12 @@
       <c r="B114" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
+      <c r="C114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E114">
         <v>1</v>
       </c>
@@ -16708,8 +17173,12 @@
       <c r="B115" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
+      <c r="C115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E115">
         <v>1</v>
       </c>
@@ -16847,8 +17316,12 @@
       <c r="B116" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
+      <c r="C116" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E116">
         <v>2</v>
       </c>
@@ -16986,8 +17459,12 @@
       <c r="B117" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
+      <c r="C117" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E117">
         <v>1</v>
       </c>
@@ -17125,8 +17602,12 @@
       <c r="B118" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
+      <c r="C118" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E118">
         <v>2</v>
       </c>
@@ -17264,8 +17745,12 @@
       <c r="B119" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
+      <c r="C119" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E119">
         <v>2</v>
       </c>
@@ -17403,8 +17888,12 @@
       <c r="B120" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
+      <c r="C120" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E120">
         <v>2</v>
       </c>
@@ -17542,8 +18031,12 @@
       <c r="B121" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="C121" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E121">
         <v>1</v>
       </c>
@@ -17681,8 +18174,12 @@
       <c r="B122" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
+      <c r="C122" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E122">
         <v>1</v>
       </c>
@@ -17820,8 +18317,12 @@
       <c r="B123" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
+      <c r="C123" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E123">
         <v>1</v>
       </c>
@@ -17959,8 +18460,12 @@
       <c r="B124" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
+      <c r="C124" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E124">
         <v>1</v>
       </c>
@@ -18098,8 +18603,12 @@
       <c r="B125" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
+      <c r="C125" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E125">
         <v>1</v>
       </c>
@@ -18237,8 +18746,12 @@
       <c r="B126" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
+      <c r="C126" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E126">
         <v>1</v>
       </c>
@@ -18376,8 +18889,12 @@
       <c r="B127" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
+      <c r="C127" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E127">
         <v>1</v>
       </c>
@@ -18515,8 +19032,12 @@
       <c r="B128" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
+      <c r="C128" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E128">
         <v>1</v>
       </c>
@@ -18654,8 +19175,12 @@
       <c r="B129" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
+      <c r="C129" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E129">
         <v>1</v>
       </c>
@@ -18793,8 +19318,12 @@
       <c r="B130" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
+      <c r="C130" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E130">
         <v>2</v>
       </c>
@@ -18932,8 +19461,12 @@
       <c r="B131" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E131">
         <v>2</v>
       </c>
@@ -19071,8 +19604,12 @@
       <c r="B132" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
+      <c r="C132" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E132">
         <v>2</v>
       </c>
@@ -19210,8 +19747,12 @@
       <c r="B133" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
+      <c r="C133" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E133">
         <v>1</v>
       </c>
@@ -19349,8 +19890,12 @@
       <c r="B134" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
+      <c r="C134" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E134">
         <v>2</v>
       </c>
@@ -19488,8 +20033,12 @@
       <c r="B135" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
+      <c r="C135" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E135">
         <v>2</v>
       </c>
@@ -19627,8 +20176,12 @@
       <c r="B136" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
+      <c r="C136" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E136">
         <v>2</v>
       </c>
@@ -19766,8 +20319,12 @@
       <c r="B137" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+      <c r="C137" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E137">
         <v>1</v>
       </c>
@@ -19905,8 +20462,12 @@
       <c r="B138" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
+      <c r="C138" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E138">
         <v>2</v>
       </c>
@@ -20044,8 +20605,12 @@
       <c r="B139" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
+      <c r="C139" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E139">
         <v>2</v>
       </c>
@@ -20183,8 +20748,12 @@
       <c r="B140" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
+      <c r="C140" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E140">
         <v>1</v>
       </c>
@@ -20322,8 +20891,12 @@
       <c r="B141" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
+      <c r="C141" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E141">
         <v>2</v>
       </c>
@@ -20461,8 +21034,12 @@
       <c r="B142" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
+      <c r="C142" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E142">
         <v>1</v>
       </c>
@@ -20600,8 +21177,12 @@
       <c r="B143" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
+      <c r="C143" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E143">
         <v>1</v>
       </c>
@@ -20739,8 +21320,12 @@
       <c r="B144" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
+      <c r="C144" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="E144">
         <v>1</v>
       </c>
@@ -20878,8 +21463,12 @@
       <c r="B145" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
+      <c r="C145" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E145">
         <v>1</v>
       </c>
@@ -21017,8 +21606,12 @@
       <c r="B146" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="C146" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E146">
         <v>1</v>
       </c>
@@ -21156,8 +21749,12 @@
       <c r="B147" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
+      <c r="C147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E147">
         <v>1</v>
       </c>
@@ -21295,8 +21892,12 @@
       <c r="B148" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
+      <c r="C148" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E148">
         <v>1</v>
       </c>
@@ -21434,8 +22035,12 @@
       <c r="B149" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E149">
         <v>1</v>
       </c>
@@ -21573,8 +22178,12 @@
       <c r="B150" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
+      <c r="C150" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E150">
         <v>1</v>
       </c>
@@ -21712,8 +22321,12 @@
       <c r="B151" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
+      <c r="C151" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E151">
         <v>2</v>
       </c>
@@ -21851,8 +22464,12 @@
       <c r="B152" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+      <c r="C152" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E152">
         <v>1</v>
       </c>
@@ -21990,8 +22607,12 @@
       <c r="B153" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
+      <c r="C153" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E153">
         <v>2</v>
       </c>
@@ -22129,8 +22750,12 @@
       <c r="B154" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+      <c r="C154" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E154">
         <v>2</v>
       </c>
@@ -22268,8 +22893,12 @@
       <c r="B155" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
+      <c r="C155" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E155">
         <v>2</v>
       </c>
@@ -22407,8 +23036,12 @@
       <c r="B156" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+      <c r="C156" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E156">
         <v>2</v>
       </c>
@@ -22546,8 +23179,12 @@
       <c r="B157" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+      <c r="C157" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E157">
         <v>2</v>
       </c>
@@ -22685,8 +23322,12 @@
       <c r="B158" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
+      <c r="C158" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E158">
         <v>1</v>
       </c>
@@ -22824,8 +23465,12 @@
       <c r="B159" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
+      <c r="C159" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E159">
         <v>2</v>
       </c>
@@ -22963,8 +23608,12 @@
       <c r="B160" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
+      <c r="C160" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E160">
         <v>1</v>
       </c>
@@ -23102,8 +23751,12 @@
       <c r="B161" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
+      <c r="C161" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E161">
         <v>1</v>
       </c>
@@ -23241,8 +23894,12 @@
       <c r="B162" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E162">
         <v>1</v>
       </c>
@@ -23380,8 +24037,12 @@
       <c r="B163" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
+      <c r="C163" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="E163">
         <v>1</v>
       </c>
